--- a/resource/examples/示例工资表数据.xlsx
+++ b/resource/examples/示例工资表数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Personal\SendMultipleEmails\src\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Personal\SendMultipleEmails\resource\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE9CC7-0241-4657-BC1F-AC039197F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E05E14-E5F0-476A-9CC2-92E55FCE4D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6AEB633-E97D-45B2-8DAE-805D7115E41F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6AEB633-E97D-45B2-8DAE-805D7115E41F}"/>
   </bookViews>
   <sheets>
     <sheet name="工资明细表" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>人员编号</t>
   </si>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>223@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +681,7 @@
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5">
         <v>3000</v>
